--- a/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
+++ b/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ole.borge\PycharmProjects\FPL-webpage-azure-devops\FPL-webpage\stored_data\eliteserien\2022\fixture_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ole.borge\PycharmProjects\FPL-webpage-azure-devops\FPL-webpage\stored_data\eliteserien\fixture_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="77">
   <si>
     <t xml:space="preserve"> @D_Thon</t>
   </si>
@@ -242,21 +242,34 @@
     <t>RBK+SIF</t>
   </si>
   <si>
-    <t>mfk</t>
+    <t>hak+MOL</t>
   </si>
   <si>
-    <t>MFK</t>
+    <t>lsk+VIK</t>
+  </si>
+  <si>
+    <t>S08+fkh</t>
+  </si>
+  <si>
+    <t>VIF+kbk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -732,272 +745,275 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1220,7 +1236,7 @@
   <dimension ref="A1:Z982"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1396,28 +1412,28 @@
       <c r="R3" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="96" t="s">
+      <c r="S3" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="95" t="s">
+      <c r="T3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="94" t="s">
+      <c r="U3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="95" t="s">
+      <c r="V3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="95" t="s">
+      <c r="W3" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="97" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="96" t="s">
+      <c r="X3" s="89" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="96" t="s">
+      <c r="Z3" s="90" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1476,17 +1492,17 @@
       <c r="R4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="S4" s="93" t="s">
+      <c r="S4" s="91" t="s">
         <v>4</v>
       </c>
       <c r="T4" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="91" t="s">
+      <c r="U4" s="92" t="s">
         <v>26</v>
       </c>
       <c r="V4" s="96" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="W4" s="93" t="s">
         <v>33</v>
@@ -1556,13 +1572,13 @@
       <c r="R5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="96" t="s">
+      <c r="S5" s="94" t="s">
         <v>7</v>
       </c>
       <c r="T5" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="U5" s="102" t="s">
+      <c r="U5" s="93" t="s">
         <v>14</v>
       </c>
       <c r="V5" s="95" t="s">
@@ -1634,14 +1650,12 @@
       <c r="R6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="S6" s="96" t="s">
+      <c r="S6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" s="98" t="s">
-        <v>23</v>
+      <c r="T6" s="109"/>
+      <c r="U6" s="101" t="s">
+        <v>73</v>
       </c>
       <c r="V6" s="96" t="s">
         <v>36</v>
@@ -1714,14 +1728,12 @@
       <c r="R7" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="S7" s="95" t="s">
+      <c r="S7" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="95" t="s">
-        <v>34</v>
-      </c>
-      <c r="U7" s="100" t="s">
-        <v>38</v>
+      <c r="T7" s="106"/>
+      <c r="U7" s="101" t="s">
+        <v>74</v>
       </c>
       <c r="V7" s="96" t="s">
         <v>39</v>
@@ -1794,13 +1806,13 @@
       <c r="R8" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="S8" s="97" t="s">
+      <c r="S8" s="100" t="s">
         <v>37</v>
       </c>
       <c r="T8" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="100" t="s">
+      <c r="U8" s="97" t="s">
         <v>12</v>
       </c>
       <c r="V8" s="97" t="s">
@@ -1870,13 +1882,13 @@
       <c r="R9" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="92" t="s">
+      <c r="S9" s="91" t="s">
         <v>26</v>
       </c>
       <c r="T9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="U9" s="91" t="s">
+      <c r="U9" s="92" t="s">
         <v>31</v>
       </c>
       <c r="V9" s="96" t="s">
@@ -1950,12 +1962,10 @@
       <c r="R10" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="S10" s="108"/>
-      <c r="T10" s="92" t="s">
-        <v>6</v>
-      </c>
-      <c r="U10" s="91" t="s">
-        <v>22</v>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="101" t="s">
+        <v>75</v>
       </c>
       <c r="V10" s="96" t="s">
         <v>8</v>
@@ -2028,11 +2038,11 @@
       <c r="R11" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="S11" s="108"/>
+      <c r="S11" s="106"/>
       <c r="T11" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="U11" s="94" t="s">
+      <c r="U11" s="96" t="s">
         <v>24</v>
       </c>
       <c r="V11" s="92" t="s">
@@ -2106,13 +2116,13 @@
       <c r="R12" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="S12" s="93" t="s">
+      <c r="S12" s="102" t="s">
         <v>10</v>
       </c>
       <c r="T12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="U12" s="94" t="s">
+      <c r="U12" s="96" t="s">
         <v>33</v>
       </c>
       <c r="V12" s="93" t="s">
@@ -2186,13 +2196,13 @@
       <c r="R13" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="S13" s="95" t="s">
+      <c r="S13" s="98" t="s">
         <v>11</v>
       </c>
       <c r="T13" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="U13" s="94" t="s">
+      <c r="U13" s="96" t="s">
         <v>9</v>
       </c>
       <c r="V13" s="96" t="s">
@@ -2266,13 +2276,13 @@
       <c r="R14" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="97" t="s">
+      <c r="S14" s="100" t="s">
         <v>12</v>
       </c>
       <c r="T14" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="100" t="s">
+      <c r="U14" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V14" s="93" t="s">
@@ -2346,11 +2356,11 @@
       <c r="R15" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="S15" s="108"/>
+      <c r="S15" s="106"/>
       <c r="T15" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="U15" s="105" t="s">
+      <c r="U15" s="101" t="s">
         <v>71</v>
       </c>
       <c r="V15" s="93" t="s">
@@ -2422,13 +2432,13 @@
       <c r="R16" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="S16" s="93" t="s">
+      <c r="S16" s="102" t="s">
         <v>31</v>
       </c>
       <c r="T16" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="U16" s="105" t="s">
+      <c r="U16" s="101" t="s">
         <v>72</v>
       </c>
       <c r="V16" s="96" t="s">
@@ -2500,12 +2510,10 @@
       <c r="R17" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="S17" s="108"/>
-      <c r="T17" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="U17" s="94" t="s">
-        <v>7</v>
+      <c r="S17" s="106"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="101" t="s">
+        <v>76</v>
       </c>
       <c r="V17" s="95" t="s">
         <v>15</v>
@@ -2574,13 +2582,13 @@
       <c r="R18" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="96" t="s">
+      <c r="S18" s="94" t="s">
         <v>23</v>
       </c>
       <c r="T18" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="U18" s="94" t="s">
+      <c r="U18" s="96" t="s">
         <v>28</v>
       </c>
       <c r="V18" s="96" t="s">

--- a/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
+++ b/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="77">
   <si>
     <t xml:space="preserve"> @D_Thon</t>
   </si>
@@ -242,34 +242,27 @@
     <t>RBK+SIF</t>
   </si>
   <si>
-    <t>hak+MOL</t>
-  </si>
-  <si>
     <t>lsk+VIK</t>
   </si>
   <si>
-    <t>S08+fkh</t>
+    <t>VIF+kbk</t>
   </si>
   <si>
-    <t>VIF+kbk</t>
+    <t>mfk</t>
+  </si>
+  <si>
+    <t>MFK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,278 +738,275 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1418,7 @@
         <v>22</v>
       </c>
       <c r="X3" s="89" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="Y3" s="90" t="s">
         <v>34</v>
@@ -1502,7 +1492,7 @@
         <v>26</v>
       </c>
       <c r="V4" s="96" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="W4" s="93" t="s">
         <v>33</v>
@@ -1653,9 +1643,11 @@
       <c r="S6" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="109"/>
-      <c r="U6" s="101" t="s">
-        <v>73</v>
+      <c r="T6" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="96" t="s">
+        <v>23</v>
       </c>
       <c r="V6" s="96" t="s">
         <v>36</v>
@@ -1733,7 +1725,7 @@
       </c>
       <c r="T7" s="106"/>
       <c r="U7" s="101" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="V7" s="96" t="s">
         <v>39</v>
@@ -1963,9 +1955,11 @@
         <v>19</v>
       </c>
       <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="101" t="s">
-        <v>75</v>
+      <c r="T10" s="93" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="93" t="s">
+        <v>22</v>
       </c>
       <c r="V10" s="96" t="s">
         <v>8</v>
@@ -2513,7 +2507,7 @@
       <c r="S17" s="106"/>
       <c r="T17" s="106"/>
       <c r="U17" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="V17" s="95" t="s">
         <v>15</v>

--- a/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
+++ b/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="77">
   <si>
     <t xml:space="preserve"> @D_Thon</t>
   </si>
@@ -557,7 +557,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -734,11 +734,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1008,6 +1023,9 @@
     <xf numFmtId="0" fontId="5" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1223,10 +1241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z982"/>
+  <dimension ref="A1:AE982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AC20" sqref="AC20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1264,7 @@
     <col min="26" max="26" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:31" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1273,7 +1291,7 @@
       <c r="R1" s="9"/>
       <c r="S1" s="9"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
       <c r="B2" s="12">
         <v>1</v>
@@ -1350,8 +1368,23 @@
       <c r="Z2" s="103">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA2" s="109">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="103">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="103">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="103">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="103">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -1426,8 +1459,23 @@
       <c r="Z3" s="90" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA3" s="94" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB3" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD3" s="95" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="95" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>51</v>
       </c>
@@ -1506,8 +1554,23 @@
       <c r="Z4" s="92" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA4" s="102" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB4" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC4" s="93" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD4" s="93" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE4" s="92" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>52</v>
       </c>
@@ -1586,8 +1649,23 @@
       <c r="Z5" s="97" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA5" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB5" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" s="96" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD5" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="30" t="s">
         <v>53</v>
       </c>
@@ -1664,8 +1742,23 @@
       <c r="Z6" s="95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA6" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC6" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD6" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31" t="s">
         <v>54</v>
       </c>
@@ -1742,8 +1835,23 @@
       <c r="Z7" s="95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA7" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB7" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="95" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="32" t="s">
         <v>55</v>
       </c>
@@ -1822,8 +1930,23 @@
       <c r="Z8" s="96" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA8" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" s="97" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD8" s="97" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE8" s="95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>56</v>
       </c>
@@ -1898,8 +2021,23 @@
       <c r="Z9" s="96" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA9" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB9" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC9" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE9" s="93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>57</v>
       </c>
@@ -1976,8 +2114,23 @@
       <c r="Z10" s="92" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA10" s="94" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB10" s="93" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC10" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD10" s="92" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE10" s="96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="35" t="s">
         <v>58</v>
       </c>
@@ -2054,8 +2207,23 @@
       <c r="Z11" s="93" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA11" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB11" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC11" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD11" s="93" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE11" s="95" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="39" t="s">
         <v>59</v>
       </c>
@@ -2134,8 +2302,23 @@
       <c r="Z12" s="93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA12" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB12" s="95" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="95" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE12" s="93" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41" t="s">
         <v>60</v>
       </c>
@@ -2214,8 +2397,23 @@
       <c r="Z13" s="97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA13" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="96" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC13" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD13" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>61</v>
       </c>
@@ -2294,8 +2492,23 @@
       <c r="Z14" s="93" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA14" s="98" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB14" s="96" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC14" s="95" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD14" s="93" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE14" s="95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31" t="s">
         <v>62</v>
       </c>
@@ -2372,8 +2585,23 @@
       <c r="Z15" s="96" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA15" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC15" s="93" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD15" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE15" s="97" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="48" t="s">
         <v>63</v>
       </c>
@@ -2450,8 +2678,23 @@
       <c r="Z16" s="96" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA16" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB16" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE16" s="93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="49" t="s">
         <v>64</v>
       </c>
@@ -2524,8 +2767,23 @@
       <c r="Z17" s="96" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA17" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC17" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD17" s="95" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="53" t="s">
         <v>65</v>
       </c>
@@ -2600,8 +2858,23 @@
       <c r="Z18" s="95" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="AA18" s="98" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC18" s="93" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD18" s="96" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE18" s="96" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2621,7 +2894,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -2637,7 +2910,7 @@
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -2653,7 +2926,7 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -2669,7 +2942,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -2685,7 +2958,7 @@
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -2701,7 +2974,7 @@
       <c r="R24" s="9"/>
       <c r="S24" s="9"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -2717,7 +2990,7 @@
       <c r="R25" s="9"/>
       <c r="S25" s="9"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -2733,7 +3006,7 @@
       <c r="R26" s="9"/>
       <c r="S26" s="9"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
@@ -2749,7 +3022,7 @@
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
@@ -2765,7 +3038,7 @@
       <c r="R28" s="9"/>
       <c r="S28" s="9"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -2781,7 +3054,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
@@ -2797,7 +3070,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
@@ -2813,7 +3086,7 @@
       <c r="R31" s="9"/>
       <c r="S31" s="9"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>

--- a/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
+++ b/stored_data/eliteserien/fixture_data/Eliteserien_fixtures.xlsx
@@ -753,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1026,6 +1026,9 @@
     <xf numFmtId="0" fontId="7" fillId="26" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1243,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE982"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AC20" sqref="AC20"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1444,34 +1447,34 @@
       <c r="U3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="108" t="s">
+      <c r="V3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="W3" s="108" t="s">
+      <c r="W3" s="90" t="s">
         <v>22</v>
       </c>
       <c r="X3" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="Y3" s="90" t="s">
+      <c r="Y3" s="108" t="s">
         <v>34</v>
       </c>
       <c r="Z3" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="AA3" s="94" t="s">
+      <c r="AA3" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="AB3" s="96" t="s">
+      <c r="AB3" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="96" t="s">
+      <c r="AC3" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="AD3" s="95" t="s">
+      <c r="AD3" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="95" t="s">
+      <c r="AE3" s="108" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1539,7 +1542,7 @@
       <c r="U4" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>76</v>
       </c>
       <c r="W4" s="93" t="s">
@@ -1554,7 +1557,7 @@
       <c r="Z4" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="AA4" s="102" t="s">
+      <c r="AA4" s="93" t="s">
         <v>13</v>
       </c>
       <c r="AB4" s="92" t="s">
@@ -1634,7 +1637,7 @@
       <c r="U5" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="V5" s="95" t="s">
+      <c r="V5" s="98" t="s">
         <v>4</v>
       </c>
       <c r="W5" s="96" t="s">
@@ -1649,7 +1652,7 @@
       <c r="Z5" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="AA5" s="94" t="s">
+      <c r="AA5" s="96" t="s">
         <v>24</v>
       </c>
       <c r="AB5" s="96" t="s">
@@ -1727,7 +1730,7 @@
       <c r="U6" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="94" t="s">
         <v>36</v>
       </c>
       <c r="W6" s="96" t="s">
@@ -1742,7 +1745,7 @@
       <c r="Z6" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="AA6" s="94" t="s">
+      <c r="AA6" s="96" t="s">
         <v>19</v>
       </c>
       <c r="AB6" s="96" t="s">
@@ -1820,7 +1823,7 @@
       <c r="U7" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="V7" s="96" t="s">
+      <c r="V7" s="94" t="s">
         <v>39</v>
       </c>
       <c r="W7" s="95" t="s">
@@ -1835,7 +1838,7 @@
       <c r="Z7" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="94" t="s">
+      <c r="AA7" s="96" t="s">
         <v>14</v>
       </c>
       <c r="AB7" s="97" t="s">
@@ -1915,7 +1918,7 @@
       <c r="U8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="V8" s="97" t="s">
+      <c r="V8" s="100" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="97" t="s">
@@ -1930,7 +1933,7 @@
       <c r="Z8" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="98" t="s">
+      <c r="AA8" s="95" t="s">
         <v>10</v>
       </c>
       <c r="AB8" s="97" t="s">
@@ -2006,7 +2009,7 @@
       <c r="U9" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="V9" s="96" t="s">
+      <c r="V9" s="94" t="s">
         <v>13</v>
       </c>
       <c r="W9" s="92" t="s">
@@ -2021,7 +2024,7 @@
       <c r="Z9" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="AA9" s="94" t="s">
+      <c r="AA9" s="96" t="s">
         <v>29</v>
       </c>
       <c r="AB9" s="96" t="s">
@@ -2099,7 +2102,7 @@
       <c r="U10" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="V10" s="96" t="s">
+      <c r="V10" s="94" t="s">
         <v>8</v>
       </c>
       <c r="W10" s="92" t="s">
@@ -2114,7 +2117,7 @@
       <c r="Z10" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="AA10" s="94" t="s">
+      <c r="AA10" s="96" t="s">
         <v>38</v>
       </c>
       <c r="AB10" s="93" t="s">
@@ -2192,7 +2195,7 @@
       <c r="U11" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="V11" s="92" t="s">
+      <c r="V11" s="91" t="s">
         <v>5</v>
       </c>
       <c r="W11" s="96" t="s">
@@ -2207,7 +2210,7 @@
       <c r="Z11" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="AA11" s="98" t="s">
+      <c r="AA11" s="95" t="s">
         <v>33</v>
       </c>
       <c r="AB11" s="96" t="s">
@@ -2287,7 +2290,7 @@
       <c r="U12" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="93" t="s">
+      <c r="V12" s="102" t="s">
         <v>34</v>
       </c>
       <c r="W12" s="96" t="s">
@@ -2302,7 +2305,7 @@
       <c r="Z12" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="AA12" s="91" t="s">
+      <c r="AA12" s="92" t="s">
         <v>9</v>
       </c>
       <c r="AB12" s="95" t="s">
@@ -2382,22 +2385,22 @@
       <c r="U13" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="V13" s="96" t="s">
+      <c r="V13" s="94" t="s">
         <v>19</v>
       </c>
       <c r="W13" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="X13" s="93" t="s">
+      <c r="X13" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="93" t="s">
+      <c r="Y13" s="96" t="s">
         <v>22</v>
       </c>
       <c r="Z13" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="AA13" s="102" t="s">
+      <c r="AA13" s="93" t="s">
         <v>5</v>
       </c>
       <c r="AB13" s="96" t="s">
@@ -2477,22 +2480,22 @@
       <c r="U14" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="V14" s="93" t="s">
+      <c r="V14" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="93" t="s">
+      <c r="W14" s="96" t="s">
         <v>24</v>
       </c>
       <c r="X14" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="Y14" s="95" t="s">
+      <c r="Y14" s="96" t="s">
         <v>10</v>
       </c>
       <c r="Z14" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="98" t="s">
+      <c r="AA14" s="95" t="s">
         <v>28</v>
       </c>
       <c r="AB14" s="96" t="s">
@@ -2570,7 +2573,7 @@
       <c r="U15" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="V15" s="93" t="s">
+      <c r="V15" s="102" t="s">
         <v>20</v>
       </c>
       <c r="W15" s="97" t="s">
@@ -2585,7 +2588,7 @@
       <c r="Z15" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="AA15" s="100" t="s">
+      <c r="AA15" s="97" t="s">
         <v>15</v>
       </c>
       <c r="AB15" s="96" t="s">
@@ -2663,7 +2666,7 @@
       <c r="U16" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="V16" s="96" t="s">
+      <c r="V16" s="94" t="s">
         <v>6</v>
       </c>
       <c r="W16" s="97" t="s">
@@ -2678,7 +2681,7 @@
       <c r="Z16" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="AA16" s="102" t="s">
+      <c r="AA16" s="93" t="s">
         <v>16</v>
       </c>
       <c r="AB16" s="96" t="s">
@@ -2752,7 +2755,7 @@
       <c r="U17" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="V17" s="95" t="s">
+      <c r="V17" s="98" t="s">
         <v>15</v>
       </c>
       <c r="W17" s="96" t="s">
@@ -2767,7 +2770,7 @@
       <c r="Z17" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="AA17" s="102" t="s">
+      <c r="AA17" s="93" t="s">
         <v>22</v>
       </c>
       <c r="AB17" s="92" t="s">
@@ -2843,7 +2846,7 @@
       <c r="U18" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="V18" s="96" t="s">
+      <c r="V18" s="94" t="s">
         <v>37</v>
       </c>
       <c r="W18" s="93" t="s">
@@ -2858,7 +2861,7 @@
       <c r="Z18" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="AA18" s="98" t="s">
+      <c r="AA18" s="95" t="s">
         <v>12</v>
       </c>
       <c r="AB18" s="96" t="s">
